--- a/BIMASAKTI_11/1.00/PROGRAM/BS Program/SPEC/GSM02500/Unit Type Category.xlsx
+++ b/BIMASAKTI_11/1.00/PROGRAM/BS Program/SPEC/GSM02500/Unit Type Category.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Work\BIMASAKTI 11\Program Specs\GS\Upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Work\BIMASAKTI 11\Program Specs\GSM02500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753ED803-3840-4822-A228-61B67932C160}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DED1389-05EC-480B-9306-A1FD95B9BB0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{1FF24E20-BBC6-43C0-86AE-C6375945D9D5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>No.</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>Integer</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Get Data from Master Department</t>
   </si>
 </sst>
 </file>
@@ -542,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1A87FA-2433-46F8-AC5D-D5A065704D53}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,22 +559,23 @@
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -579,18 +586,21 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -602,10 +612,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8A5E21-C618-4BCA-95F1-7AD3EE4B7A52}">
-  <dimension ref="A2:M18"/>
+  <dimension ref="A2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,22 +754,22 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -767,22 +777,22 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -790,19 +800,22 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" t="s">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -810,28 +823,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
-      </c>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13">
-        <v>20230701</v>
+        <v>21</v>
       </c>
       <c r="M13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -839,27 +843,56 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>12</v>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14">
+        <v>20230701</v>
+      </c>
+      <c r="M14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
         <v>14</v>
       </c>
     </row>
